--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39418</v>
+        <v>39419</v>
       </c>
       <c r="D126" t="n">
         <v>4169</v>
       </c>
       <c r="E126" t="n">
-        <v>225065374</v>
+        <v>225067291</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -12436,13 +12436,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="D236" t="n">
         <v>1375</v>
       </c>
       <c r="E236" t="n">
-        <v>12524255</v>
+        <v>12608292</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -18964,13 +18964,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="D364" t="n">
         <v>1134</v>
       </c>
       <c r="E364" t="n">
-        <v>29528560</v>
+        <v>29531204</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -27073,13 +27073,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="D523" t="n">
         <v>869</v>
       </c>
       <c r="E523" t="n">
-        <v>20510381</v>
+        <v>20511881</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17162226</v>
+        <v>17175156</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37579,13 +37579,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D729" t="n">
         <v>299</v>
       </c>
       <c r="E729" t="n">
-        <v>3752857</v>
+        <v>3754697</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182235</v>
+        <v>182242</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1648340189</v>
+        <v>1648456223</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60056</v>
+        <v>60058</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288573687</v>
+        <v>288579458</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183889</v>
+        <v>183890</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553651614</v>
+        <v>553677346</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34654</v>
+        <v>34656</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70068231</v>
+        <v>70094408</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114976</v>
+        <v>114978</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418429193</v>
+        <v>418434931</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25067</v>
+        <v>25068</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160374418</v>
+        <v>160411835</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -45535,13 +45535,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>16864</v>
+        <v>16865</v>
       </c>
       <c r="D885" t="n">
         <v>5279</v>
       </c>
       <c r="E885" t="n">
-        <v>32415618</v>
+        <v>32489480</v>
       </c>
       <c r="F885" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127500</v>
+        <v>127501</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277441100</v>
+        <v>277443956</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25951</v>
+        <v>25953</v>
       </c>
       <c r="D892" t="n">
         <v>5119</v>
       </c>
       <c r="E892" t="n">
-        <v>67393127</v>
+        <v>67470094</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11668</v>
+        <v>11669</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54559114</v>
+        <v>54602868</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21935</v>
+        <v>21936</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40057160</v>
+        <v>40105992</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -56551,13 +56551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>17939</v>
+        <v>17940</v>
       </c>
       <c r="D1101" t="n">
         <v>4166</v>
       </c>
       <c r="E1101" t="n">
-        <v>48387962</v>
+        <v>48397076</v>
       </c>
       <c r="F1101" t="inlineStr">
         <is>
@@ -60733,13 +60733,13 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>43493</v>
+        <v>43495</v>
       </c>
       <c r="D1183" t="n">
         <v>9851</v>
       </c>
       <c r="E1183" t="n">
-        <v>134061269</v>
+        <v>134074929</v>
       </c>
       <c r="F1183" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25253</v>
+        <v>25254</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46025005</v>
+        <v>46025574</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47409</v>
+        <v>47410</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161649789</v>
+        <v>161655984</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -83530,13 +83530,13 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>31882</v>
+        <v>31883</v>
       </c>
       <c r="D1630" t="n">
         <v>6795</v>
       </c>
       <c r="E1630" t="n">
-        <v>61942523</v>
+        <v>61944023</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>
